--- a/dfresultsscenario.xlsx
+++ b/dfresultsscenario.xlsx
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
